--- a/phan3/Thiet ke DB.xlsx
+++ b/phan3/Thiet ke DB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranquangkhoi\Desktop\BaiTap\baitap\phan3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\My PC (Admin)\Desktop\baitap\baitap\phan3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E8723-B9F1-4D21-9475-AB7C570A86E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="19" r:id="rId1"/>
@@ -26,7 +25,7 @@
   <definedNames>
     <definedName name="validate">[1]tmp!$G$6:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -185,13 +184,7 @@
     <t>ID học viên</t>
   </si>
   <si>
-    <t>student_id</t>
-  </si>
-  <si>
     <t>ID giảng viên</t>
-  </si>
-  <si>
-    <t>teacher_id</t>
   </si>
   <si>
     <t>courses</t>
@@ -247,11 +240,14 @@
   <si>
     <t>ID thông tin đăng ký</t>
   </si>
+  <si>
+    <t>ID hoc viên</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
@@ -798,81 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -882,20 +803,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -921,15 +830,102 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="1" hidden="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0]" xfId="2" hidden="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency" xfId="3" hidden="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="4" hidden="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma" xfId="1" hidden="1"/>
+    <cellStyle name="Comma [0]" xfId="2" hidden="1"/>
+    <cellStyle name="Currency" xfId="3" hidden="1"/>
+    <cellStyle name="Currency [0]" xfId="4" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Percent" xfId="5" hidden="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Percent" xfId="5" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1464,17 +1460,14 @@
           <a:pPr>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>teacher_id(PK)</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -1489,7 +1482,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>user_id (FK)</a:t>
+            <a:t>user_id (PK)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1679,17 +1672,14 @@
           <a:pPr>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>student_id(PK)</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr>
@@ -1704,7 +1694,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>user_id (FK)</a:t>
+            <a:t>user_id (PK)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1908,7 +1898,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>teacher_id</a:t>
+            <a:t>user_id</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
@@ -2119,7 +2109,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>student_id (FK)</a:t>
+            <a:t>user_id (FK)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:solidFill>
@@ -3369,12 +3359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -6717,12 +6707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -6932,49 +6922,49 @@
     <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
@@ -7001,49 +6991,49 @@
     <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="17"/>
@@ -7070,47 +7060,47 @@
     <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="60"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="77"/>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
@@ -7137,45 +7127,45 @@
     <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="80"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="17"/>
@@ -7202,45 +7192,45 @@
     <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="56"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
@@ -7267,45 +7257,45 @@
     <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="56"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="17"/>
@@ -7332,45 +7322,45 @@
     <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
@@ -7397,45 +7387,45 @@
     <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="54"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
@@ -7674,10 +7664,10 @@
     </row>
     <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="50">
+      <c r="B15" s="60">
         <v>1</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="38" t="s">
         <v>24</v>
       </c>
@@ -7753,10 +7743,10 @@
     </row>
     <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="48">
+      <c r="B16" s="62">
         <v>2</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="24" t="s">
         <v>25</v>
       </c>
@@ -7828,10 +7818,10 @@
     </row>
     <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="48">
+      <c r="B17" s="62">
         <v>3</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="24" t="s">
         <v>26</v>
       </c>
@@ -7903,10 +7893,10 @@
     </row>
     <row r="18" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="31"/>
-      <c r="B18" s="76">
+      <c r="B18" s="64">
         <v>4</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="33" t="s">
         <v>27</v>
       </c>
@@ -8114,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="18"/>
@@ -8130,7 +8120,7 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="73" t="s">
+      <c r="R21" s="48" t="s">
         <v>19</v>
       </c>
       <c r="S21" s="18"/>
@@ -8164,7 +8154,7 @@
       <c r="AQ21" s="21"/>
       <c r="AR21" s="21"/>
       <c r="AS21" s="20"/>
-      <c r="AT21" s="73" t="s">
+      <c r="AT21" s="48" t="s">
         <v>13</v>
       </c>
       <c r="AU21" s="18"/>
@@ -9311,20 +9301,20 @@
     <row r="196" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C9:AO9"/>
+    <mergeCell ref="C10:AO10"/>
+    <mergeCell ref="H4:AO4"/>
+    <mergeCell ref="H5:AO5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:AO6"/>
+    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="C8:AO8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="C11:AO11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:AO6"/>
-    <mergeCell ref="C7:AO7"/>
-    <mergeCell ref="C8:AO8"/>
-    <mergeCell ref="C9:AO9"/>
-    <mergeCell ref="C10:AO10"/>
-    <mergeCell ref="H4:AO4"/>
-    <mergeCell ref="H5:AO5"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -9338,11 +9328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AFD38C-9D62-4C84-BAB8-7C097923471C}">
-  <dimension ref="A1:BK197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -9552,49 +9542,49 @@
     <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
@@ -9621,49 +9611,49 @@
     <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="17"/>
@@ -9690,47 +9680,47 @@
     <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="60"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="77"/>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
@@ -9757,45 +9747,45 @@
     <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="80"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="17"/>
@@ -9822,45 +9812,45 @@
     <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="56"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
@@ -9887,45 +9877,45 @@
     <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="56"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="17"/>
@@ -9952,45 +9942,45 @@
     <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
@@ -10017,45 +10007,45 @@
     <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="54"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
@@ -10294,73 +10284,71 @@
     </row>
     <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="79">
+      <c r="B15" s="87">
         <v>1</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="85" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="85" t="s">
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="85" t="s">
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="39"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="39"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
       <c r="BC15" s="39"/>
       <c r="BD15" s="39"/>
       <c r="BE15" s="39"/>
@@ -10373,12 +10361,12 @@
     </row>
     <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="48">
-        <v>2</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="86" t="s">
-        <v>24</v>
+      <c r="B16" s="62">
+        <v>3</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -10393,8 +10381,8 @@
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="87" t="s">
-        <v>7</v>
+      <c r="R16" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
@@ -10407,7 +10395,7 @@
       <c r="AA16" s="26"/>
       <c r="AB16" s="27"/>
       <c r="AC16" s="25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
@@ -10427,15 +10415,15 @@
       <c r="AQ16" s="26"/>
       <c r="AR16" s="26"/>
       <c r="AS16" s="27"/>
-      <c r="AT16" s="25"/>
+      <c r="AT16" s="58"/>
       <c r="AU16" s="26"/>
       <c r="AV16" s="26"/>
       <c r="AW16" s="26"/>
       <c r="AX16" s="26"/>
       <c r="AY16" s="26"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
       <c r="BC16" s="22"/>
       <c r="BD16" s="22"/>
       <c r="BE16" s="22"/>
@@ -10448,2706 +10436,12 @@
     </row>
     <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="48">
-        <v>3</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="24" t="s">
+      <c r="B17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="22"/>
-      <c r="AR17" s="22"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="22"/>
-      <c r="AV17" s="22"/>
-      <c r="AW17" s="22"/>
-      <c r="AX17" s="22"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="22"/>
-      <c r="BA17" s="22"/>
-      <c r="BB17" s="22"/>
-      <c r="BC17" s="22"/>
-      <c r="BD17" s="22"/>
-      <c r="BE17" s="22"/>
-      <c r="BF17" s="22"/>
-      <c r="BG17" s="22"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="22"/>
-      <c r="BJ17" s="23"/>
-      <c r="BK17" s="32"/>
-    </row>
-    <row r="18" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="76">
-        <v>4</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="33" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="35"/>
-      <c r="AS18" s="34"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="35"/>
-      <c r="AV18" s="35"/>
-      <c r="AW18" s="35"/>
-      <c r="AX18" s="35"/>
-      <c r="AY18" s="35"/>
-      <c r="AZ18" s="35"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="35"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="35"/>
-      <c r="BG18" s="35"/>
-      <c r="BH18" s="35"/>
-      <c r="BI18" s="35"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="32"/>
-    </row>
-    <row r="19" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
-      <c r="BK19" s="32"/>
-    </row>
-    <row r="20" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="32"/>
-    </row>
-    <row r="21" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="18"/>
-      <c r="BJ21" s="20"/>
-      <c r="BK21" s="32"/>
-    </row>
-    <row r="22" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="75"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="29"/>
-      <c r="BF22" s="29"/>
-      <c r="BG22" s="29"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="32"/>
-    </row>
-    <row r="23" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="17"/>
-      <c r="AQ23" s="17"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="17"/>
-      <c r="BE23" s="17"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="17"/>
-      <c r="BH23" s="17"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="17"/>
-      <c r="BK23" s="32"/>
-    </row>
-    <row r="24" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="17"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="17"/>
-      <c r="BE24" s="17"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="17"/>
-      <c r="BH24" s="17"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="17"/>
-      <c r="BK24" s="32"/>
-    </row>
-    <row r="25" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="17"/>
-      <c r="AQ25" s="17"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="17"/>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
-      <c r="AW25" s="17"/>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="17"/>
-      <c r="BE25" s="17"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="17"/>
-      <c r="BH25" s="17"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="17"/>
-      <c r="BK25" s="32"/>
-    </row>
-    <row r="26" spans="1:63" ht="15" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="17"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="17"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="17"/>
-      <c r="BE26" s="17"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="17"/>
-      <c r="BH26" s="17"/>
-      <c r="BI26" s="17"/>
-      <c r="BJ26" s="17"/>
-      <c r="BK26" s="32"/>
-    </row>
-    <row r="27" spans="1:63" ht="15" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="17"/>
-      <c r="AO27" s="17"/>
-      <c r="AP27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="17"/>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
-      <c r="AW27" s="17"/>
-      <c r="AX27" s="17"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="17"/>
-      <c r="BA27" s="17"/>
-      <c r="BB27" s="17"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="17"/>
-      <c r="BE27" s="17"/>
-      <c r="BF27" s="17"/>
-      <c r="BG27" s="17"/>
-      <c r="BH27" s="17"/>
-      <c r="BI27" s="17"/>
-      <c r="BJ27" s="17"/>
-      <c r="BK27" s="32"/>
-    </row>
-    <row r="28" spans="1:63" ht="15" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="17"/>
-      <c r="BH28" s="17"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="32"/>
-    </row>
-    <row r="29" spans="1:63" ht="15" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
-      <c r="AT29" s="7"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="7"/>
-      <c r="AW29" s="7"/>
-      <c r="AX29" s="7"/>
-      <c r="AY29" s="7"/>
-      <c r="AZ29" s="7"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="7"/>
-      <c r="BC29" s="7"/>
-      <c r="BD29" s="7"/>
-      <c r="BE29" s="7"/>
-      <c r="BF29" s="7"/>
-      <c r="BG29" s="7"/>
-      <c r="BH29" s="7"/>
-      <c r="BI29" s="7"/>
-      <c r="BJ29" s="7"/>
-      <c r="BK29" s="9"/>
-    </row>
-    <row r="30" spans="1:63" ht="15" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
-      <c r="AT30" s="7"/>
-      <c r="AU30" s="7"/>
-      <c r="AV30" s="7"/>
-      <c r="AW30" s="7"/>
-      <c r="AX30" s="7"/>
-      <c r="AY30" s="7"/>
-      <c r="AZ30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BG30" s="7"/>
-      <c r="BH30" s="7"/>
-      <c r="BI30" s="7"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="9"/>
-    </row>
-    <row r="31" spans="1:63" ht="15" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
-      <c r="AX31" s="7"/>
-      <c r="AY31" s="7"/>
-      <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
-      <c r="BJ31" s="7"/>
-      <c r="BK31" s="9"/>
-    </row>
-    <row r="32" spans="1:63" ht="15" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="7"/>
-      <c r="AX32" s="7"/>
-      <c r="AY32" s="7"/>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="7"/>
-      <c r="BI32" s="7"/>
-      <c r="BJ32" s="7"/>
-      <c r="BK32" s="9"/>
-    </row>
-    <row r="33" spans="1:63" ht="15" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
-      <c r="AT33" s="7"/>
-      <c r="AU33" s="7"/>
-      <c r="AV33" s="7"/>
-      <c r="AW33" s="7"/>
-      <c r="AX33" s="7"/>
-      <c r="AY33" s="7"/>
-      <c r="AZ33" s="7"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
-      <c r="BC33" s="7"/>
-      <c r="BD33" s="7"/>
-      <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
-      <c r="BJ33" s="7"/>
-      <c r="BK33" s="9"/>
-    </row>
-    <row r="34" spans="1:63" ht="15" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
-      <c r="AR34" s="7"/>
-      <c r="AS34" s="7"/>
-      <c r="AT34" s="7"/>
-      <c r="AU34" s="7"/>
-      <c r="AV34" s="7"/>
-      <c r="AW34" s="7"/>
-      <c r="AX34" s="7"/>
-      <c r="AY34" s="7"/>
-      <c r="AZ34" s="7"/>
-      <c r="BA34" s="7"/>
-      <c r="BB34" s="7"/>
-      <c r="BC34" s="7"/>
-      <c r="BD34" s="7"/>
-      <c r="BE34" s="7"/>
-      <c r="BF34" s="7"/>
-      <c r="BG34" s="7"/>
-      <c r="BH34" s="7"/>
-      <c r="BI34" s="7"/>
-      <c r="BJ34" s="7"/>
-      <c r="BK34" s="9"/>
-    </row>
-    <row r="35" spans="1:63" ht="15" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="7"/>
-      <c r="AT35" s="7"/>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
-      <c r="AW35" s="7"/>
-      <c r="AX35" s="7"/>
-      <c r="AY35" s="7"/>
-      <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
-      <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
-      <c r="BJ35" s="7"/>
-      <c r="BK35" s="9"/>
-    </row>
-    <row r="36" spans="1:63" ht="15" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
-      <c r="AQ36" s="7"/>
-      <c r="AR36" s="7"/>
-      <c r="AS36" s="7"/>
-      <c r="AT36" s="7"/>
-      <c r="AU36" s="7"/>
-      <c r="AV36" s="7"/>
-      <c r="AW36" s="7"/>
-      <c r="AX36" s="7"/>
-      <c r="AY36" s="7"/>
-      <c r="AZ36" s="7"/>
-      <c r="BA36" s="7"/>
-      <c r="BB36" s="7"/>
-      <c r="BC36" s="7"/>
-      <c r="BD36" s="7"/>
-      <c r="BE36" s="7"/>
-      <c r="BF36" s="7"/>
-      <c r="BG36" s="7"/>
-      <c r="BH36" s="7"/>
-      <c r="BI36" s="7"/>
-      <c r="BJ36" s="7"/>
-      <c r="BK36" s="9"/>
-    </row>
-    <row r="37" spans="1:63" ht="15" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
-      <c r="AQ37" s="11"/>
-      <c r="AR37" s="11"/>
-      <c r="AS37" s="11"/>
-      <c r="AT37" s="11"/>
-      <c r="AU37" s="11"/>
-      <c r="AV37" s="11"/>
-      <c r="AW37" s="11"/>
-      <c r="AX37" s="11"/>
-      <c r="AY37" s="11"/>
-      <c r="AZ37" s="11"/>
-      <c r="BA37" s="11"/>
-      <c r="BB37" s="11"/>
-      <c r="BC37" s="11"/>
-      <c r="BD37" s="11"/>
-      <c r="BE37" s="11"/>
-      <c r="BF37" s="11"/>
-      <c r="BG37" s="11"/>
-      <c r="BH37" s="11"/>
-      <c r="BI37" s="11"/>
-      <c r="BJ37" s="11"/>
-      <c r="BK37" s="12"/>
-    </row>
-    <row r="38" spans="1:63" ht="15" customHeight="1"/>
-    <row r="39" spans="1:63" ht="15" customHeight="1"/>
-    <row r="40" spans="1:63" ht="15" customHeight="1"/>
-    <row r="41" spans="1:63" ht="15" customHeight="1"/>
-    <row r="42" spans="1:63" ht="15" customHeight="1"/>
-    <row r="43" spans="1:63" ht="15" customHeight="1"/>
-    <row r="44" spans="1:63" ht="15" customHeight="1"/>
-    <row r="45" spans="1:63" ht="15" customHeight="1"/>
-    <row r="46" spans="1:63" ht="15" customHeight="1"/>
-    <row r="47" spans="1:63" ht="15" customHeight="1"/>
-    <row r="48" spans="1:63" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
-    <row r="59" ht="15" customHeight="1"/>
-    <row r="60" ht="15" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
-    <row r="63" ht="15" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="82" ht="15" customHeight="1"/>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="91" ht="15" customHeight="1"/>
-    <row r="92" ht="15" customHeight="1"/>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="94" ht="15" customHeight="1"/>
-    <row r="95" ht="15" customHeight="1"/>
-    <row r="96" ht="15" customHeight="1"/>
-    <row r="97" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
-    <row r="99" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
-    <row r="101" ht="15" customHeight="1"/>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" ht="15" customHeight="1"/>
-    <row r="105" ht="15" customHeight="1"/>
-    <row r="106" ht="15" customHeight="1"/>
-    <row r="107" ht="15" customHeight="1"/>
-    <row r="108" ht="15" customHeight="1"/>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
-    <row r="113" ht="15" customHeight="1"/>
-    <row r="114" ht="15" customHeight="1"/>
-    <row r="115" ht="15" customHeight="1"/>
-    <row r="116" ht="15" customHeight="1"/>
-    <row r="117" ht="15" customHeight="1"/>
-    <row r="118" ht="15" customHeight="1"/>
-    <row r="119" ht="15" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="121" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="124" ht="15" customHeight="1"/>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="126" ht="15" customHeight="1"/>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="128" ht="15" customHeight="1"/>
-    <row r="129" ht="15" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
-    <row r="132" ht="15" customHeight="1"/>
-    <row r="133" ht="15" customHeight="1"/>
-    <row r="134" ht="15" customHeight="1"/>
-    <row r="135" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
-    <row r="137" ht="15" customHeight="1"/>
-    <row r="138" ht="15" customHeight="1"/>
-    <row r="139" ht="15" customHeight="1"/>
-    <row r="140" ht="15" customHeight="1"/>
-    <row r="141" ht="15" customHeight="1"/>
-    <row r="142" ht="15" customHeight="1"/>
-    <row r="143" ht="15" customHeight="1"/>
-    <row r="144" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C8:AO8"/>
-    <mergeCell ref="C9:AO9"/>
-    <mergeCell ref="C10:AO10"/>
-    <mergeCell ref="C11:AO11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:AO4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:AO5"/>
-    <mergeCell ref="C6:AO6"/>
-    <mergeCell ref="C7:AO7"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;F</oddHeader>
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BDA21-3ECE-4A90-9BB1-7A1319E3644B}">
-  <dimension ref="A1:BK196"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="63" width="2.77734375" style="5" customWidth="1"/>
-    <col min="64" max="64" width="8.88671875" style="5" customWidth="1"/>
-    <col min="65" max="16384" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="31"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="32"/>
-    </row>
-    <row r="2" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17"/>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="32"/>
-    </row>
-    <row r="3" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="17"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="32"/>
-    </row>
-    <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="17"/>
-      <c r="BI4" s="17"/>
-      <c r="BJ4" s="17"/>
-      <c r="BK4" s="32"/>
-    </row>
-    <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-      <c r="BI5" s="17"/>
-      <c r="BJ5" s="17"/>
-      <c r="BK5" s="32"/>
-    </row>
-    <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="17"/>
-      <c r="BK6" s="32"/>
-    </row>
-    <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="32"/>
-    </row>
-    <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="32"/>
-    </row>
-    <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="32"/>
-    </row>
-    <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="32"/>
-    </row>
-    <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="32"/>
-    </row>
-    <row r="12" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="32"/>
-    </row>
-    <row r="13" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="32"/>
-    </row>
-    <row r="14" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="32"/>
-    </row>
-    <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="79">
-        <v>1</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK15" s="82"/>
-      <c r="AL15" s="83"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="82"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="82"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="82"/>
-      <c r="BA15" s="82"/>
-      <c r="BB15" s="82"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="82"/>
-      <c r="BE15" s="82"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
-      <c r="BJ15" s="83"/>
-      <c r="BK15" s="32"/>
-    </row>
-    <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="48">
-        <v>2</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="32"/>
-    </row>
-    <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="76">
-        <v>3</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="33" t="s">
-        <v>42</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -13163,7 +10457,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
@@ -13176,7 +10470,7 @@
       <c r="AA17" s="35"/>
       <c r="AB17" s="34"/>
       <c r="AC17" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AD17" s="35"/>
       <c r="AE17" s="35"/>
@@ -13196,7 +10490,7 @@
       <c r="AQ17" s="35"/>
       <c r="AR17" s="35"/>
       <c r="AS17" s="34"/>
-      <c r="AT17" s="78"/>
+      <c r="AT17" s="51"/>
       <c r="AU17" s="35"/>
       <c r="AV17" s="35"/>
       <c r="AW17" s="35"/>
@@ -13353,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="18"/>
@@ -13369,7 +10663,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="20"/>
-      <c r="R20" s="73" t="s">
+      <c r="R20" s="48" t="s">
         <v>19</v>
       </c>
       <c r="S20" s="18"/>
@@ -13403,7 +10697,7 @@
       <c r="AQ20" s="21"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="20"/>
-      <c r="AT20" s="73" t="s">
+      <c r="AT20" s="48" t="s">
         <v>13</v>
       </c>
       <c r="AU20" s="18"/>
@@ -13430,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="37"/>
@@ -13476,7 +10770,7 @@
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
       <c r="AO21" s="37"/>
-      <c r="AP21" s="75"/>
+      <c r="AP21" s="50"/>
       <c r="AQ21" s="29"/>
       <c r="AR21" s="29"/>
       <c r="AS21" s="30"/>
@@ -14625,19 +11919,19 @@
     <row r="196" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:AO4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:AO5"/>
+    <mergeCell ref="C6:AO6"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="C8:AO8"/>
     <mergeCell ref="C9:AO9"/>
     <mergeCell ref="C10:AO10"/>
     <mergeCell ref="C11:AO11"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:AO4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:AO5"/>
-    <mergeCell ref="C6:AO6"/>
-    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -14649,12 +11943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE4A4A0-DCCA-497B-8A74-094782B009FA}">
-  <dimension ref="A1:BK199"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -14864,49 +12158,49 @@
     <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
@@ -14933,49 +12227,49 @@
     <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="17"/>
@@ -15002,47 +12296,47 @@
     <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="60"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="77"/>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
@@ -15069,45 +12363,45 @@
     <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="80"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="17"/>
@@ -15134,45 +12428,45 @@
     <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="56"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
@@ -15199,45 +12493,45 @@
     <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="56"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="17"/>
@@ -15264,45 +12558,45 @@
     <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
@@ -15329,45 +12623,45 @@
     <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="54"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
@@ -15606,12 +12900,2552 @@
     </row>
     <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="50">
+      <c r="B15" s="62">
         <v>1</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="27"/>
+      <c r="BK15" s="32"/>
+    </row>
+    <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="64">
+        <v>2</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="35"/>
+      <c r="AW16" s="35"/>
+      <c r="AX16" s="35"/>
+      <c r="AY16" s="35"/>
+      <c r="AZ16" s="35"/>
+      <c r="BA16" s="35"/>
+      <c r="BB16" s="35"/>
+      <c r="BC16" s="35"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="35"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
+      <c r="BH16" s="35"/>
+      <c r="BI16" s="35"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="32"/>
+    </row>
+    <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="32"/>
+    </row>
+    <row r="18" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="32"/>
+    </row>
+    <row r="19" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="32"/>
+    </row>
+    <row r="20" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="37"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="50"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="32"/>
+    </row>
+    <row r="21" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="32"/>
+    </row>
+    <row r="22" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="32"/>
+    </row>
+    <row r="23" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="17"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="32"/>
+    </row>
+    <row r="24" spans="1:63" ht="15" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="17"/>
+      <c r="BB24" s="17"/>
+      <c r="BC24" s="17"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="17"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="32"/>
+    </row>
+    <row r="25" spans="1:63" ht="15" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="32"/>
+    </row>
+    <row r="26" spans="1:63" ht="15" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="32"/>
+    </row>
+    <row r="27" spans="1:63" ht="15" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="9"/>
+    </row>
+    <row r="28" spans="1:63" ht="15" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="9"/>
+    </row>
+    <row r="29" spans="1:63" ht="15" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="9"/>
+    </row>
+    <row r="30" spans="1:63" ht="15" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="9"/>
+    </row>
+    <row r="31" spans="1:63" ht="15" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="7"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="9"/>
+    </row>
+    <row r="32" spans="1:63" ht="15" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="9"/>
+    </row>
+    <row r="33" spans="1:63" ht="15" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="9"/>
+    </row>
+    <row r="34" spans="1:63" ht="15" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="9"/>
+    </row>
+    <row r="35" spans="1:63" ht="15" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="12"/>
+    </row>
+    <row r="36" spans="1:63" ht="15" customHeight="1"/>
+    <row r="37" spans="1:63" ht="15" customHeight="1"/>
+    <row r="38" spans="1:63" ht="15" customHeight="1"/>
+    <row r="39" spans="1:63" ht="15" customHeight="1"/>
+    <row r="40" spans="1:63" ht="15" customHeight="1"/>
+    <row r="41" spans="1:63" ht="15" customHeight="1"/>
+    <row r="42" spans="1:63" ht="15" customHeight="1"/>
+    <row r="43" spans="1:63" ht="15" customHeight="1"/>
+    <row r="44" spans="1:63" ht="15" customHeight="1"/>
+    <row r="45" spans="1:63" ht="15" customHeight="1"/>
+    <row r="46" spans="1:63" ht="15" customHeight="1"/>
+    <row r="47" spans="1:63" ht="15" customHeight="1"/>
+    <row r="48" spans="1:63" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="15" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
+    <row r="62" ht="15" customHeight="1"/>
+    <row r="63" ht="15" customHeight="1"/>
+    <row r="64" ht="15" customHeight="1"/>
+    <row r="65" ht="15" customHeight="1"/>
+    <row r="66" ht="15" customHeight="1"/>
+    <row r="67" ht="15" customHeight="1"/>
+    <row r="68" ht="15" customHeight="1"/>
+    <row r="69" ht="15" customHeight="1"/>
+    <row r="70" ht="15" customHeight="1"/>
+    <row r="71" ht="15" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1"/>
+    <row r="73" ht="15" customHeight="1"/>
+    <row r="74" ht="15" customHeight="1"/>
+    <row r="75" ht="15" customHeight="1"/>
+    <row r="76" ht="15" customHeight="1"/>
+    <row r="77" ht="15" customHeight="1"/>
+    <row r="78" ht="15" customHeight="1"/>
+    <row r="79" ht="15" customHeight="1"/>
+    <row r="80" ht="15" customHeight="1"/>
+    <row r="81" ht="15" customHeight="1"/>
+    <row r="82" ht="15" customHeight="1"/>
+    <row r="83" ht="15" customHeight="1"/>
+    <row r="84" ht="15" customHeight="1"/>
+    <row r="85" ht="15" customHeight="1"/>
+    <row r="86" ht="15" customHeight="1"/>
+    <row r="87" ht="15" customHeight="1"/>
+    <row r="88" ht="15" customHeight="1"/>
+    <row r="89" ht="15" customHeight="1"/>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:AO4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:AO5"/>
+    <mergeCell ref="C6:AO6"/>
+    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C8:AO8"/>
+    <mergeCell ref="C9:AO9"/>
+    <mergeCell ref="C10:AO10"/>
+    <mergeCell ref="C11:AO11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;F</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK199"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="63" width="2.77734375" style="5" customWidth="1"/>
+    <col min="64" max="64" width="8.88671875" style="5" customWidth="1"/>
+    <col min="65" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="32"/>
+    </row>
+    <row r="2" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17"/>
+      <c r="BI2" s="17"/>
+      <c r="BJ2" s="17"/>
+      <c r="BK2" s="32"/>
+    </row>
+    <row r="3" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="17"/>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="17"/>
+      <c r="BK3" s="32"/>
+    </row>
+    <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="32"/>
+    </row>
+    <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="31"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+      <c r="BD5" s="17"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="17"/>
+      <c r="BG5" s="17"/>
+      <c r="BH5" s="17"/>
+      <c r="BI5" s="17"/>
+      <c r="BJ5" s="17"/>
+      <c r="BK5" s="32"/>
+    </row>
+    <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17"/>
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="32"/>
+    </row>
+    <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="80"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="32"/>
+    </row>
+    <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="17"/>
+      <c r="AV8" s="17"/>
+      <c r="AW8" s="17"/>
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="17"/>
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="32"/>
+    </row>
+    <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="32"/>
+    </row>
+    <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
+      <c r="BD10" s="17"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17"/>
+      <c r="BH10" s="17"/>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="32"/>
+    </row>
+    <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="32"/>
+    </row>
+    <row r="12" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
+      <c r="BD12" s="17"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="17"/>
+      <c r="BH12" s="17"/>
+      <c r="BI12" s="17"/>
+      <c r="BJ12" s="17"/>
+      <c r="BK12" s="32"/>
+    </row>
+    <row r="13" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="17"/>
+      <c r="BB13" s="17"/>
+      <c r="BC13" s="17"/>
+      <c r="BD13" s="17"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="17"/>
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="17"/>
+      <c r="BK13" s="32"/>
+    </row>
+    <row r="14" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="32"/>
+    </row>
+    <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="60">
+        <v>1</v>
+      </c>
+      <c r="C15" s="61"/>
       <c r="D15" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -15627,7 +15461,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -15685,12 +15519,12 @@
     </row>
     <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="48">
+      <c r="B16" s="62">
         <v>2</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="86" t="s">
-        <v>51</v>
+      <c r="C16" s="63"/>
+      <c r="D16" s="57" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -15705,8 +15539,8 @@
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="87" t="s">
-        <v>47</v>
+      <c r="R16" s="58" t="s">
+        <v>7</v>
       </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
@@ -15760,12 +15594,12 @@
     </row>
     <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="48">
+      <c r="B17" s="62">
         <v>3</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="86" t="s">
-        <v>52</v>
+      <c r="C17" s="63"/>
+      <c r="D17" s="57" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -15780,8 +15614,8 @@
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="87" t="s">
-        <v>57</v>
+      <c r="R17" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
@@ -15835,12 +15669,12 @@
     </row>
     <row r="18" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="31"/>
-      <c r="B18" s="48">
+      <c r="B18" s="62">
         <v>4</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -15856,7 +15690,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
@@ -15869,7 +15703,7 @@
       <c r="AA18" s="26"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
@@ -15889,7 +15723,7 @@
       <c r="AQ18" s="26"/>
       <c r="AR18" s="26"/>
       <c r="AS18" s="27"/>
-      <c r="AT18" s="87"/>
+      <c r="AT18" s="58"/>
       <c r="AU18" s="26"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
@@ -15910,12 +15744,12 @@
     </row>
     <row r="19" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="31"/>
-      <c r="B19" s="48">
+      <c r="B19" s="62">
         <v>5</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -15931,7 +15765,7 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
@@ -15964,7 +15798,7 @@
       <c r="AQ19" s="26"/>
       <c r="AR19" s="26"/>
       <c r="AS19" s="27"/>
-      <c r="AT19" s="87"/>
+      <c r="AT19" s="58"/>
       <c r="AU19" s="26"/>
       <c r="AV19" s="26"/>
       <c r="AW19" s="26"/>
@@ -15985,12 +15819,12 @@
     </row>
     <row r="20" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="31"/>
-      <c r="B20" s="76">
+      <c r="B20" s="64">
         <v>6</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -16006,7 +15840,7 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="34"/>
       <c r="R20" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
@@ -16039,7 +15873,7 @@
       <c r="AQ20" s="35"/>
       <c r="AR20" s="35"/>
       <c r="AS20" s="34"/>
-      <c r="AT20" s="78"/>
+      <c r="AT20" s="51"/>
       <c r="AU20" s="35"/>
       <c r="AV20" s="35"/>
       <c r="AW20" s="35"/>
@@ -16196,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="18"/>
@@ -16212,7 +16046,7 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="73" t="s">
+      <c r="R23" s="48" t="s">
         <v>19</v>
       </c>
       <c r="S23" s="18"/>
@@ -16246,7 +16080,7 @@
       <c r="AQ23" s="21"/>
       <c r="AR23" s="21"/>
       <c r="AS23" s="20"/>
-      <c r="AT23" s="73" t="s">
+      <c r="AT23" s="48" t="s">
         <v>13</v>
       </c>
       <c r="AU23" s="18"/>
@@ -16273,8 +16107,8 @@
         <v>1</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="74" t="s">
-        <v>47</v>
+      <c r="D24" s="49" t="s">
+        <v>7</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="29"/>
@@ -16290,7 +16124,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="30"/>
       <c r="R24" s="47" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="S24" s="37"/>
       <c r="T24" s="29"/>
@@ -16314,12 +16148,12 @@
       <c r="AJ24" s="29"/>
       <c r="AK24" s="30"/>
       <c r="AL24" s="47" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AM24" s="29"/>
       <c r="AN24" s="29"/>
       <c r="AO24" s="37"/>
-      <c r="AP24" s="75"/>
+      <c r="AP24" s="50"/>
       <c r="AQ24" s="29"/>
       <c r="AR24" s="29"/>
       <c r="AS24" s="30"/>
@@ -17468,6 +17302,12 @@
     <row r="199" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:AO4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:AO5"/>
+    <mergeCell ref="C6:AO6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -17478,12 +17318,6 @@
     <mergeCell ref="C11:AO11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:AO4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:AO5"/>
-    <mergeCell ref="C6:AO6"/>
-    <mergeCell ref="C7:AO7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -17496,11 +17330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789A0293-8123-4067-884C-128BD35B1776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
@@ -17710,49 +17544,49 @@
     <row r="4" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
@@ -17779,49 +17613,49 @@
     <row r="5" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="54"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="68"/>
       <c r="AP5" s="17"/>
       <c r="AQ5" s="17"/>
       <c r="AR5" s="17"/>
@@ -17848,47 +17682,47 @@
     <row r="6" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="60"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="77"/>
       <c r="AP6" s="17"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
@@ -17915,45 +17749,45 @@
     <row r="7" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="31"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="63"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="80"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
       <c r="AR7" s="17"/>
@@ -17980,45 +17814,45 @@
     <row r="8" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="56"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="83"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
@@ -18045,45 +17879,45 @@
     <row r="9" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="56"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="83"/>
       <c r="AP9" s="17"/>
       <c r="AQ9" s="17"/>
       <c r="AR9" s="17"/>
@@ -18110,45 +17944,45 @@
     <row r="10" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="56"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="83"/>
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
@@ -18175,45 +18009,45 @@
     <row r="11" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="54"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="68"/>
       <c r="AP11" s="17"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="17"/>
@@ -18452,12 +18286,12 @@
     </row>
     <row r="15" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="31"/>
-      <c r="B15" s="50">
+      <c r="B15" s="60">
         <v>1</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -18473,7 +18307,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="40"/>
       <c r="R15" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -18531,11 +18365,11 @@
     </row>
     <row r="16" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="48">
+      <c r="B16" s="62">
         <v>2</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="86" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="26"/>
@@ -18551,8 +18385,8 @@
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="87" t="s">
-        <v>45</v>
+      <c r="R16" s="58" t="s">
+        <v>7</v>
       </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
@@ -18606,12 +18440,12 @@
     </row>
     <row r="17" spans="1:63" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="76">
+      <c r="B17" s="64">
         <v>3</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="88" t="s">
-        <v>50</v>
+      <c r="C17" s="65"/>
+      <c r="D17" s="59" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
@@ -18626,8 +18460,8 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="34"/>
-      <c r="R17" s="78" t="s">
-        <v>56</v>
+      <c r="R17" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
@@ -18817,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="18"/>
@@ -18833,7 +18667,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="20"/>
-      <c r="R20" s="73" t="s">
+      <c r="R20" s="48" t="s">
         <v>19</v>
       </c>
       <c r="S20" s="18"/>
@@ -18867,7 +18701,7 @@
       <c r="AQ20" s="21"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="20"/>
-      <c r="AT20" s="73" t="s">
+      <c r="AT20" s="48" t="s">
         <v>13</v>
       </c>
       <c r="AU20" s="18"/>
@@ -18895,7 +18729,7 @@
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="46" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="29"/>
@@ -18911,7 +18745,7 @@
       <c r="P21" s="29"/>
       <c r="Q21" s="30"/>
       <c r="R21" s="47" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="29"/>
@@ -18935,12 +18769,12 @@
       <c r="AJ21" s="29"/>
       <c r="AK21" s="30"/>
       <c r="AL21" s="47" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="AM21" s="29"/>
       <c r="AN21" s="29"/>
       <c r="AO21" s="37"/>
-      <c r="AP21" s="75"/>
+      <c r="AP21" s="50"/>
       <c r="AQ21" s="29"/>
       <c r="AR21" s="29"/>
       <c r="AS21" s="30"/>
@@ -18969,8 +18803,8 @@
         <v>2</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="74" t="s">
-        <v>56</v>
+      <c r="D22" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="29"/>
@@ -18986,7 +18820,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S22" s="37"/>
       <c r="T22" s="29"/>
@@ -18998,7 +18832,7 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
@@ -19010,7 +18844,7 @@
       <c r="AJ22" s="29"/>
       <c r="AK22" s="30"/>
       <c r="AL22" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM22" s="29"/>
       <c r="AN22" s="29"/>
@@ -20164,6 +19998,12 @@
     <row r="197" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C7:AO7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:AO4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:AO5"/>
+    <mergeCell ref="C6:AO6"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="C8:AO8"/>
@@ -20171,12 +20011,6 @@
     <mergeCell ref="C10:AO10"/>
     <mergeCell ref="C11:AO11"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:AO4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:AO5"/>
-    <mergeCell ref="C6:AO6"/>
-    <mergeCell ref="C7:AO7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
